--- a/medicine/Psychotrope/Côtes-de-duras/Côtes-de-duras.xlsx
+++ b/medicine/Psychotrope/Côtes-de-duras/Côtes-de-duras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-duras</t>
+          <t>Côtes-de-duras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le côtes-de-duras[1] est un vin français d'appellation d'origine contrôlée produit sur une partie du Lot-et-Garonne, autour du village de Duras, dans le prolongement des vignobles de Bordeaux.
+Le côtes-de-duras est un vin français d'appellation d'origine contrôlée produit sur une partie du Lot-et-Garonne, autour du village de Duras, dans le prolongement des vignobles de Bordeaux.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-duras</t>
+          <t>Côtes-de-duras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Moyen Âge
-Période moderne
-Les vins de Duras sont connus depuis François Ier. Après la révocation de l'édit de Nantes et le départ de protestants locaux pour les Pays-Bas les exportations vers la mer du Nord décollent. 
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins de Duras sont connus depuis François Ier. Après la révocation de l'édit de Nantes et le départ de protestants locaux pour les Pays-Bas les exportations vers la mer du Nord décollent. 
 La région fera ensuite partie du « haut pays bordelais » et ses vins sont exportés par le négoce bordelais du quartier des Chartrons. C'est une époque dorée qui prend fin avec la restriction de l'appellation Bordeaux aux seuls vins de Gironde. 
-Période contemporaine
-L'appellation est accordée le 16 février 1937. 
 </t>
         </is>
       </c>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-duras</t>
+          <t>Côtes-de-duras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La forme la plus ancienne de Duras pourrait provenir du celte duros signifiant hauteur fortifiée, racine à laquelle aurait été rajouté le suffixe -acum. Les toponymistes suggèrent aussi un transfert de la cité de Durazzo[5]. Le duras, est aussi un cépage de la région gaillacoise auquel on a voulu donner les mêmes origines.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation est accordée le 16 février 1937. 
 </t>
         </is>
       </c>
@@ -562,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-duras</t>
+          <t>Côtes-de-duras</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,20 +596,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce vignoble est situé au nord ouest du Lot-et-Garonne, aux confins de la Gironde et de la Dordogne
-Orographie
-Géologie
-L'appellation repose sur des sédiments fluvio-lacustres tertiaires de trois formations différentes :
-Calcaire de Castillon, blanc, crayeux, plus ou moins fissuré.
-Molasses de l'Agenais : alternance de couches argileuse ou argilo-sableuses et de lits de gravier.
-calcaire blanc de l'Agenais.
-Climatologie
-C'est le même climat océanique que celui du vignoble bordelais avec une nuance vers des températures un peu plus extrêmes à cause de l'éloignement de l'océan.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme la plus ancienne de Duras pourrait provenir du celte duros signifiant hauteur fortifiée, racine à laquelle aurait été rajouté le suffixe -acum. Les toponymistes suggèrent aussi un transfert de la cité de Durazzo. Le duras, est aussi un cépage de la région gaillacoise auquel on a voulu donner les mêmes origines.
 </t>
         </is>
       </c>
@@ -601,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-duras</t>
+          <t>Côtes-de-duras</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,28 +629,274 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vignoble est situé au nord ouest du Lot-et-Garonne, aux confins de la Gironde et de la Dordogne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Côtes-de-duras</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-duras</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'appellation repose sur des sédiments fluvio-lacustres tertiaires de trois formations différentes :
+Calcaire de Castillon, blanc, crayeux, plus ou moins fissuré.
+Molasses de l'Agenais : alternance de couches argileuse ou argilo-sableuses et de lits de gravier.
+calcaire blanc de l'Agenais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côtes-de-duras</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-duras</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le même climat océanique que celui du vignoble bordelais avec une nuance vers des températures un peu plus extrêmes à cause de l'éloignement de l'océan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Côtes-de-duras</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-duras</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Son terroir occupe la rive droite du Dropt et il est découpé par la vallée de la Dourdèze.
-Présentation
-Le vignoble s'étend sur 15 communes : Auriac-sur-Dropt, Baleyssagues, Duras, Esclottes, Loubes-Bernac, Moustier, Pardaillan, Saint-Astier, Sainte-Colombe-de-Duras, Saint-Jean-de-Duras, Saint-Sernin, La Sauvetat-du-Dropt, Savignac de Duras, Soumensac et Villeneuve-de-Duras. 
-Encépagement
-Vins blancs : Sauvignon, Sémillon, Muscadelle, Mauzac, Rouchelein ou Chenin et Ondenc. L'Ugni blanc est cépage accessoire limité à 25 %.
-Vins rouges : Cabernet-sauvignon, Cabernet franc, Merlot et Côt.
-Méthodes culturales
-Vinification et élevage
-Vin blanc sec : limité à 60 Hl/Ha, il est marqué par son nez de sauvignon, et sa bouche nerveuse et racée. Il est vinifié à basse température avec parfois macération préfermentaire ou élevage sur lie.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son terroir occupe la rive droite du Dropt et il est découpé par la vallée de la Dourdèze.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Côtes-de-duras</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-duras</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur 15 communes : Auriac-sur-Dropt, Baleyssagues, Duras, Esclottes, Loubes-Bernac, Moustier, Pardaillan, Saint-Astier, Sainte-Colombe-de-Duras, Saint-Jean-de-Duras, Saint-Sernin, La Sauvetat-du-Dropt, Savignac de Duras, Soumensac et Villeneuve-de-Duras. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Côtes-de-duras</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-duras</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Vins blancs : Sauvignon, Sémillon, Muscadelle, Mauzac, Rouchelein ou Chenin et Ondenc. L'Ugni blanc est cépage accessoire limité à 25 %.
+Vins rouges : Cabernet-sauvignon, Cabernet franc, Merlot et Côt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Côtes-de-duras</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-duras</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Vin blanc sec : limité à 60 Hl/Ha, il est marqué par son nez de sauvignon, et sa bouche nerveuse et racée. Il est vinifié à basse température avec parfois macération préfermentaire ou élevage sur lie.
 Vin blanc moelleux : limité à 50 Hl/Ha, il a des arômes de fruits confits. Certaines cuves sont laborées comme des liquoreux par récolte avec tries successives.
 Vins rosés : limité à 55 Hl/Ha, il est agréablement frais et fruité. La vinification est un rosé de saignée.
-Vins rouges : limités à 55 Hl/Ha, ils sont généralement souples et fruités, mais des cuvées, notamment vieillies en fût de chêne, peuvent être plus charpentées. La vinification se fait souvent en macération longue.
-Terroir et vins
-Structure des exploitations
-Les sources INAO de 2005 font état de 2 038 ha ayant produit 121 948 hl dans 86 caves particulières, 3 caves coopératives et  négoces.
-Type de vins et gastronomie
-Commercialisation</t>
+Vins rouges : limités à 55 Hl/Ha, ils sont généralement souples et fruités, mais des cuvées, notamment vieillies en fût de chêne, peuvent être plus charpentées. La vinification se fait souvent en macération longue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Côtes-de-duras</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-duras</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sources INAO de 2005 font état de 2 038 ha ayant produit 121 948 hl dans 86 caves particulières, 3 caves coopératives et  négoces.
+</t>
         </is>
       </c>
     </row>
